--- a/data/trans_camb/P3A_R2-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P3A_R2-Dificultad-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>-1.02491716452435</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>4.326278488668354</v>
+        <v>4.326278488668356</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.3969548565790248</v>
@@ -664,7 +664,7 @@
         <v>-0.6341888242638377</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>2.994259354429873</v>
+        <v>2.994259354429872</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.269803665090589</v>
+        <v>-1.551079120382519</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.431616097301314</v>
+        <v>-1.382365798042618</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.1602806759752086</v>
+        <v>-0.1013779544072045</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.5131716456606844</v>
+        <v>-0.631088935555468</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.485271119992964</v>
+        <v>-2.526383541454995</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>2.541039692001088</v>
+        <v>2.358964848555742</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.5893011135530191</v>
+        <v>-0.7656394782450474</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.624794077690604</v>
+        <v>-1.565056565939002</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>1.77798028646505</v>
+        <v>1.810206054755887</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.187919236801916</v>
+        <v>0.9474126492010811</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.034281609995833</v>
+        <v>1.008030276333095</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.175735538784533</v>
+        <v>3.315195161948112</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.658728596335051</v>
+        <v>2.57803367102616</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2772703699676554</v>
+        <v>0.3466506469397255</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>6.240878442637267</v>
+        <v>6.188664240867789</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.373832818802288</v>
+        <v>1.32828826487626</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2330433302635755</v>
+        <v>0.2080361291253658</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>4.28853137551581</v>
+        <v>4.292295794017534</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.581999903963295</v>
+        <v>-0.6180215612906153</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.5854578019103358</v>
+        <v>-0.5785719656737989</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1400444771663247</v>
+        <v>-0.1206873198592557</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1555007136096424</v>
+        <v>-0.1922188231157253</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.7036357423374612</v>
+        <v>-0.696627695670628</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7194369083500209</v>
+        <v>0.6329720243035263</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2290727937476043</v>
+        <v>-0.2575809896957116</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5687075241273342</v>
+        <v>-0.5741625292775175</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.6081989028612187</v>
+        <v>0.6490592634615634</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.954428729033507</v>
+        <v>1.188200200107514</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.289246567415094</v>
+        <v>1.334447351440411</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>3.731319120525919</v>
+        <v>4.186893841452338</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.348178472990961</v>
+        <v>1.425497218851931</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2103929181960232</v>
+        <v>0.2346923330887467</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>3.344449468819498</v>
+        <v>3.166984551621061</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.8336945644935291</v>
+        <v>0.8109821539775673</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1427419407148673</v>
+        <v>0.1494896200185103</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>2.501801088784238</v>
+        <v>2.525739640771772</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>0.4283485908153827</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>3.025665901388813</v>
+        <v>3.025665901388812</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>1.444571875072898</v>
@@ -878,7 +878,7 @@
         <v>0.1974429426507607</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>2.285906668259559</v>
+        <v>2.285906668259558</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.1164772701343223</v>
+        <v>-0.182100903935274</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.094974334669263</v>
+        <v>-1.080698707838581</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.09406642055622577</v>
+        <v>0.2569035362776095</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4833063584419148</v>
+        <v>0.3362647599233557</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.825974067595675</v>
+        <v>-0.7862350934389523</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.722483521257337</v>
+        <v>1.804683309036618</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.5600174663713511</v>
+        <v>0.5282221267839475</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.6989055354178603</v>
+        <v>-0.5501595204643002</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>1.444199049490121</v>
+        <v>1.465057030837335</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.359120094731978</v>
+        <v>2.338213903293799</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.014885596196779</v>
+        <v>1.033779631149403</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.475860359906658</v>
+        <v>2.818450483495269</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.193266584118298</v>
+        <v>3.20648392141538</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.788436260176942</v>
+        <v>1.777794910577201</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>4.213961204770869</v>
+        <v>4.188140771618806</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.442982367491154</v>
+        <v>2.475121427668949</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.02033842268359</v>
+        <v>1.078380987279085</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>3.140249287768984</v>
+        <v>3.254867860720657</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.03863969106589672</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.889400837326941</v>
+        <v>0.8894008373269412</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>1.099063474626631</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.07799333066655639</v>
+        <v>-0.1115315421620449</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.5218939545082766</v>
+        <v>-0.5536419635212155</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.03300839434104728</v>
+        <v>0.06556543646577151</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.1689195405462181</v>
+        <v>0.1279592842251082</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4237829361047912</v>
+        <v>-0.371991248621705</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6207246869154119</v>
+        <v>0.7303908924070189</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2406485494502925</v>
+        <v>0.2627372495099922</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3489694585827134</v>
+        <v>-0.3167044663406933</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.6946973655505085</v>
+        <v>0.7048311984355233</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.8632908000312</v>
+        <v>1.953317888618679</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.9455010168795728</v>
+        <v>0.9199681442194221</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.077221118304247</v>
+        <v>2.435899791791399</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>3.003116538707934</v>
+        <v>2.818736333242351</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.633278805052759</v>
+        <v>1.762994154164</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>3.871609350262089</v>
+        <v>3.92537744569731</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.912035252094448</v>
+        <v>1.93411826366368</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.8065615708747084</v>
+        <v>0.8664574918982609</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>2.556307651054626</v>
+        <v>2.516477825224092</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-0.742667646465487</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.3218380016029934</v>
+        <v>0.3218380016029941</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>1.514585763493817</v>
@@ -1083,7 +1083,7 @@
         <v>1.338774889426741</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>2.216734842900362</v>
+        <v>2.216734842900363</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>1.325315483094613</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.6700630292954985</v>
+        <v>-0.719913928620504</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.406045567160792</v>
+        <v>-2.435709871602842</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.427389518430774</v>
+        <v>-1.382772311415898</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.2056838188487836</v>
+        <v>-0.1925212912565031</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.4503056533033723</v>
+        <v>-0.304373570562077</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.5888016305757316</v>
+        <v>0.6628866114405494</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1124962551567509</v>
+        <v>-0.03638542820428484</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.9574192198604168</v>
+        <v>-1.051108424210922</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.04524120530469796</v>
+        <v>-0.02205360991743353</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.340539271923208</v>
+        <v>3.242804550689555</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.091809068681435</v>
+        <v>1.085938680973834</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.214188182689715</v>
+        <v>2.230740146025096</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.221595774989971</v>
+        <v>3.261256186867581</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.314708191746854</v>
+        <v>3.435652910048568</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.69283904290744</v>
+        <v>3.644637038108388</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.710118626480582</v>
+        <v>2.669663127430967</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.549140497383568</v>
+        <v>1.59837410933417</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.505854375041844</v>
+        <v>2.410498137326022</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.1772176196355031</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.07679796585157996</v>
+        <v>0.07679796585158012</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.5716367715446045</v>
@@ -1188,7 +1188,7 @@
         <v>0.505282021040211</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.8366427174403924</v>
+        <v>0.8366427174403929</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.3822571586968616</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1401275425261088</v>
+        <v>-0.1513836761971385</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.4977944883748926</v>
+        <v>-0.482345634493186</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2952419077025823</v>
+        <v>-0.2824827644062655</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.07582215647863506</v>
+        <v>-0.06940589527229839</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1677121946087981</v>
+        <v>-0.1242524408571569</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1424984884115506</v>
+        <v>0.1770216851394878</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02429903521488741</v>
+        <v>-0.009935120817254312</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2469885934270757</v>
+        <v>-0.2610665668911205</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.009426501500173733</v>
+        <v>-0.008675266988316162</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.9646506071804442</v>
+        <v>0.9443109094842135</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.3475995343542664</v>
+        <v>0.3375055094186037</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.6234261355161067</v>
+        <v>0.6406876415931616</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.714169668937444</v>
+        <v>1.704739721691378</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.584814365097768</v>
+        <v>1.673884703226729</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.971846574853403</v>
+        <v>1.868011732382498</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.9378901055436263</v>
+        <v>0.9124584898190491</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.5251357933829589</v>
+        <v>0.5554032714361753</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.9179791833583896</v>
+        <v>0.8596417807408384</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-8.092870183768571</v>
+        <v>-8.649070389203448</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-11.20078055902869</v>
+        <v>-11.23693208050606</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-9.058796135951495</v>
+        <v>-9.080270146489339</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-4.376375287049792</v>
+        <v>-4.2979195041819</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-7.396284058531593</v>
+        <v>-7.03444959699037</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-6.95688506392782</v>
+        <v>-6.938099728340063</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-5.235162997007968</v>
+        <v>-4.959808477950529</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-8.051879695206646</v>
+        <v>-8.226622934949921</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-6.92928612783896</v>
+        <v>-6.741638387769747</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-0.3238004040136432</v>
+        <v>-0.4842539973694491</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-4.0015189383145</v>
+        <v>-3.801541183738653</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-1.819884560275852</v>
+        <v>-1.920116579493408</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.292302827824462</v>
+        <v>4.773011576858996</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.810751938811168</v>
+        <v>1.007428749834497</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2054349405335153</v>
+        <v>0.1358437733276727</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.6494983483960521</v>
+        <v>1.179702790689452</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-2.748963412141933</v>
+        <v>-2.740520132688854</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-1.903322621363446</v>
+        <v>-1.662462633849659</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.5836241490993369</v>
+        <v>-0.5906062542082882</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.7700911296693432</v>
+        <v>-0.7655438601703961</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.616027108202468</v>
+        <v>-0.6047950942908276</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.3456889805920036</v>
+        <v>-0.3405646069432656</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.5772427166249279</v>
+        <v>-0.5647011124648702</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.5181381911938345</v>
+        <v>-0.5106199487584607</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.4093727399158099</v>
+        <v>-0.3900535101419809</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.6362138028623541</v>
+        <v>-0.6332115221297688</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.5308573337873931</v>
+        <v>-0.5141488263831564</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.02733292925764359</v>
+        <v>-0.03776205121889312</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.4017515294833382</v>
+        <v>-0.3779935941840404</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.1832793004836926</v>
+        <v>-0.1872581561273923</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.5341014669840679</v>
+        <v>0.6282909345777932</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1038760753569706</v>
+        <v>0.138727400543992</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.02355821237371853</v>
+        <v>0.0474725988410091</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.08607003299141663</v>
+        <v>0.1322494196416945</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.2859838479735092</v>
+        <v>-0.2697148326135057</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.1992448468611158</v>
+        <v>-0.1754727046076309</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-1.452225084021705</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.5872960629663699</v>
+        <v>0.5872960629663686</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>1.461332070569901</v>
@@ -1511,7 +1511,7 @@
         <v>-0.07441484639949571</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>2.651356034401301</v>
+        <v>2.651356034401302</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>0.6574622044317823</v>
@@ -1520,7 +1520,7 @@
         <v>-0.7514630117824512</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>1.643371609066783</v>
+        <v>1.643371609066781</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.090505177315265</v>
+        <v>-1.188848966022797</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.401659503085876</v>
+        <v>-2.482317910321928</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.3872853182989249</v>
+        <v>-0.5306254425759049</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.4433167028014385</v>
+        <v>0.5011457736950404</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.9795534269902438</v>
+        <v>-0.9748493238172985</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>1.752277923779719</v>
+        <v>1.8174381946313</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.003856647561774979</v>
+        <v>-0.06411875337566413</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-1.396383204510245</v>
+        <v>-1.398613195776269</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>1.060530727640094</v>
+        <v>0.9643890814297834</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.8216492862909222</v>
+        <v>0.7991478307325741</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-0.6455461130981477</v>
+        <v>-0.6223306473534507</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.508198547853849</v>
+        <v>1.498834511684692</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2.341201230347478</v>
+        <v>2.398874990331576</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.8138654620275163</v>
+        <v>0.8868235320184764</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>3.479521080626479</v>
+        <v>3.537869201564061</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>1.351134860984607</v>
+        <v>1.339442125254898</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-0.08755356055600594</v>
+        <v>-0.1131353445624972</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>2.297055037723541</v>
+        <v>2.325074104615696</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.3724916702983929</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.1506397967236487</v>
+        <v>0.1506397967236484</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.4698500253501532</v>
@@ -1616,7 +1616,7 @@
         <v>-0.02392599065700061</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.8524685970177266</v>
+        <v>0.8524685970177268</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.1878681718490384</v>
@@ -1625,7 +1625,7 @@
         <v>-0.2147286662018148</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.4695893053362939</v>
+        <v>0.4695893053362935</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.2497553725745793</v>
+        <v>-0.2666768752595036</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.5491585496285365</v>
+        <v>-0.5378737664480332</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.09186151878934086</v>
+        <v>-0.1216785459524632</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.1171296996818115</v>
+        <v>0.1367089126014502</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.2804201548730411</v>
+        <v>-0.2675599119679108</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4908844655460916</v>
+        <v>0.4902941123643414</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.002195548055177532</v>
+        <v>-0.01538015481982774</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.3577597654209842</v>
+        <v>-0.3640400957042511</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.2695516928080619</v>
+        <v>0.2494651791684811</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.2483920699480461</v>
+        <v>0.240755920053368</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.1876379181772772</v>
+        <v>-0.1657222206523992</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.4437750530161648</v>
+        <v>0.4263307216721344</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.8619616409064059</v>
+        <v>0.8593412884165562</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.2980408267580145</v>
+        <v>0.3369218018180087</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.367515304607515</v>
+        <v>1.314722622917672</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.4119797348049193</v>
+        <v>0.4128409281812535</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.02923315185708307</v>
+        <v>-0.0351170591834476</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.7158045793050439</v>
+        <v>0.7408930498916761</v>
       </c>
     </row>
     <row r="34">
